--- a/readme/test_cases.xlsx
+++ b/readme/test_cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -40,7 +40,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t xml:space="preserve">https://muslimgowhere.netlify.app/
+      <t xml:space="preserve">https://foliaging.netlify.app/
 </t>
     </r>
     <r>
@@ -68,7 +68,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://muslimgowhere.netlify.app/</t>
+      <t>https://foliaging.netlify.app/</t>
     </r>
     <r>
       <rPr/>
@@ -96,7 +96,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://muslimgowhere.netlify.app/</t>
+      <t>https://foliaging.netlify.app/</t>
     </r>
     <r>
       <rPr/>
@@ -108,98 +108,78 @@
     <t>2A</t>
   </si>
   <si>
-    <t xml:space="preserve">Landing &gt; What's New </t>
-  </si>
-  <si>
-    <t>1. Go to published site: https://muslimgowhere.netlify.app/
-2. Proceed to What's New section
-3. Click on any articles on "Read More"</t>
-  </si>
-  <si>
-    <t>The site will redirect to the detail page of the article</t>
+    <t>Products</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. Go to published site: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> https://foliaging.netlify.app/</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+2. From homepage, click on "Plants" / "Planters" /  "Supplies" / "All Products"</t>
+    </r>
+  </si>
+  <si>
+    <t>The site will redirect to correct view with search, filtering and sorting options, and also the respective products</t>
   </si>
   <si>
     <t>2B</t>
   </si>
   <si>
-    <t>Landing &gt; Explore Categories</t>
-  </si>
-  <si>
-    <t>1. Go to published site: https://muslimgowhere.netlify.app/
-2. Proceed to Explore Categories section
-3. Click on any banners</t>
-  </si>
-  <si>
-    <t>The site will redirect to a listing page with the results pre-filtered to the clicked Category</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>Explore</t>
-  </si>
-  <si>
-    <t>1. Go to published site: https://muslimgowhere.netlify.app/
-2. From homepage, click on "Explore"</t>
-  </si>
-  <si>
-    <t>The site will redirect to Explore view with search, filtering and sorting options, and also all articles</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>Explore &gt; Sort</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 3A
-1. At Explore, click on each sorting option available:
+    <t>Products &gt; Sort</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 2A
+1. At Products, click on each sorting option available:
 a. What's New
 b. Oldest
-c. Last Updated
-d. Title (A-Z)
-e. Title (Z-A</t>
+c. Price: Low to High
+d. Price: High to Low
+e. Title (A-Z)
+f. Title (Z-A</t>
   </si>
   <si>
     <t>Results will be sorted according to the selection made</t>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>Explore &gt; Search</t>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>Products &gt; Search</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 2A
+1. At Product listing, type any keywords to search against content of the article (title, description, details' content)
+2. Click the CTA "Filter"</t>
+  </si>
+  <si>
+    <t>Results will be returned if search keyword matches any of the fields, or it will display a No Results message</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Products &gt; Filter</t>
   </si>
   <si>
     <t>Pre-requsite: Test Step 3A
-1. At Explore, type any keywords to search against content of the article (title, description, details' content, and tags)
+1. At any Product listing, select any of the filter options provided
 2. Click the CTA "Filter"</t>
   </si>
   <si>
-    <t>Results will be returned if search keyword matches any of the fields, or it will display a No Results message</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>Explore &gt; Filter</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 3A
-1. At Explore, select a Country option (title, description, details' content, and tags)
-2. Select a City option
-3. Select any number of Categories
-4. Select any number of Sub-categories
-5. Slide Rating to a desired range
-6. Click the CTA "Filter"</t>
-  </si>
-  <si>
     <t>Results will be returned if filtering options matches its contents, or it will display a No Results message</t>
   </si>
   <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>Explore &gt; Reset</t>
+    <t>Products &gt; Reset</t>
   </si>
   <si>
     <t>Pre-requsite: Test Step 3D
@@ -209,190 +189,182 @@
     <t>Search and filtering options are reset, and all results will be shown</t>
   </si>
   <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>Explore &gt; Article Bookmark</t>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to "Register" via the navigation bar
+2. Visitor fill in all required fields
+3. Vistor submits the form
+</t>
+  </si>
+  <si>
+    <t>Visitor will see a success notification message and can now login</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
   <si>
     <t>Pre-requsite: Test Step 3A
-1. At Explore, click on "Add Bookmark" icon on any article
-2. Enter an email
-3. Click the CTA "Add"</t>
-  </si>
-  <si>
-    <t>Article can be bookmarked successfully with a success message indicator</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>Explore &gt; Article</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 3A
-1. At Explore, click on any articles' "Read More"</t>
-  </si>
-  <si>
-    <t>The site redirects to an article successfully</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-requsite: Test Step 3G
-</t>
-  </si>
-  <si>
-    <t>1. Article is loaded with its details and author information
-2. Article bookmark icon can be seen
-3. Article action bar icons, Edit and Delete, can be seen
-4. Article rating and comments can be seen</t>
+1. Navigate to "Login" via the navigation bar
+2. Fill in login details
+3. Submit the form</t>
+  </si>
+  <si>
+    <t>The site will redirect visitor to user profile page</t>
   </si>
   <si>
     <t>4B</t>
   </si>
   <si>
-    <t>Article &gt; Article Bookmark</t>
+    <t>User Profile &gt; Profile</t>
   </si>
   <si>
     <t>Pre-requsite: Test Step 4A
-1. In Article, click on "Add Bookmark" icon
-2. Enter an email
-3. Click the CTA "Add"</t>
+1. Navigate to "Profile" via the navigation bar
+2. User profile is displayed
+3. User clicks on "Update Profile" / "Change Password"
+4, User submist the form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can now see and update details for the account </t>
   </si>
   <si>
     <t>4C</t>
   </si>
   <si>
-    <t>Article &gt; Edit</t>
+    <t>User Profile &gt; Add Address</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A and 4B
+1. In "Profile", navigate to "Address Book" tab
+2. User addresses if any will be displayed
+3. User can add new address by filling up required fills
+4. User submits the form</t>
+  </si>
+  <si>
+    <t>User can add new address to the account</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>User Profile &gt; Edit Address</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A , 4B, and 4C
+1. Click on "Update" CTA to launch modal form
+2. User should see form pre-filled with values
+3. User can edit any of the fields
+4. User submits the form</t>
+  </si>
+  <si>
+    <t>User can update address of the account</t>
+  </si>
+  <si>
+    <t>User Profile &gt; Delete Address</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A , 4B, and 4C
+1. Click on "Delete" CTA to launch confirmation modal
+2. User should see message asking to confirm
+4. User confirms deletion</t>
+  </si>
+  <si>
+    <t>User can delete address of the account</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>Cart</t>
   </si>
   <si>
     <t>Pre-requsite: Test Step 4A
-1. In Article, click on "Edit" icon
-2a. If the article allows Public Contribution:
-i. Fill in the details as mentioned
-ii. Click "Next
-2b. If the article does not allow Public Contribution:
-i. Fill in the email that was used for submission initially
-ii. Click "Next"
-3. Fill in the rest of the fields to proceed
-4. At last step, click "Submit"</t>
-  </si>
-  <si>
-    <t>Article can be edited successfully with a success message indicator, and the article will reflect the updates immediately after closing the modal</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>Article &gt; Delete</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 4A
-1. In Article, click on "Delete" icon
-2. Fill in the email that was used for submission initially
-3. Click "Next"
-3. Click "Confirm"</t>
-  </si>
-  <si>
-    <t>Article can be deleted successfully with a success message indicator</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>Article &gt; Rating</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 4A
-1. In Article, give a rating by hovering and clicking on the stars</t>
-  </si>
-  <si>
-    <t>Article rating vote count will increase, and new average rating is reflected</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>Article &gt; Comment</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 4A
-1. In Article, scroll to the bottom
-2. Fill in fields required
-3. Click "Add a comment"</t>
-  </si>
-  <si>
-    <t>Article will have a new comment immediately after submit, and all details filled are displayed accurately</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>1. Go to published site: https://muslimgowhere.netlify.app/
-2. From homepage, click on "Create"</t>
-  </si>
-  <si>
-    <t>The site will redirect to Create view</t>
+1. User can access shopping cart anywhere by clicking cart icon in navigation bar</t>
+  </si>
+  <si>
+    <t>User can see the shopping cart</t>
   </si>
   <si>
     <t>5B</t>
   </si>
   <si>
-    <t>Create &gt; Submit</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 4A
-1. Keep filling in all required fields and details as mentioned
-2. Keep clicking "Next" to proceed to the last step
-4. At last step, click "Submit"</t>
-  </si>
-  <si>
-    <t>Article is added successfully with a success message indicator, and the article link will be provided for author to access</t>
+    <t>Cart &gt; Add to Cart</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 3A and 4A 
+1. In any Product listing or detail view, click on Cart icon</t>
+  </si>
+  <si>
+    <t>User can add product to cart</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>Cart &gt; Update quantity</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A 
+1. User enter new quantity in shopping cart by filling up provided field</t>
+  </si>
+  <si>
+    <t>User can update cart item's quantity</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>Cart &gt; Delete from cart</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A 
+1. User click on delete icon in shopping cart</t>
+  </si>
+  <si>
+    <t>User can delete cart item's from cart</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>Cart &gt; Checkout</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A 
+1. User click on "Checkout" CTA
+2. User will be required to fill in details such as first name, last name and select addresses for billing and shipping
+3. User submits the form</t>
+  </si>
+  <si>
+    <t>User will be redirected to stripe to complete checkout</t>
   </si>
   <si>
     <t>6A</t>
   </si>
   <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>1. Go to published site: https://muslimgowhere.netlify.app/
-2. From homepage, click on "Collection"</t>
-  </si>
-  <si>
-    <t>The site will redirect to Collection view</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>Collection &gt; Remove</t>
-  </si>
-  <si>
-    <t>Pre-requsite: Test Step 3F, and 6A
-1. At Collection, if any email was entered previously:
-a. Bookmarked articles will be displayed
-b. Click on "Remove Bookmark" icon
-c. A modal will be displayed for confirmation
-d. Click CTA "Confirm"</t>
-  </si>
-  <si>
-    <t>Article is removed from collection under the email alias</t>
+    <t>User Profile &gt; Orders</t>
+  </si>
+  <si>
+    <t>Pre-requsite: Test Step 4A , 5E completed successfully
+1. Navigate to "Profile"
+2. Navigate to "Orders" tab</t>
+  </si>
+  <si>
+    <t>User can see any orders that have been made and check its status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -420,6 +392,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -435,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -451,11 +427,22 @@
         <color rgb="FFCCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -479,6 +466,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -767,7 +769,7 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -818,232 +820,274 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="7" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
     <hyperlink r:id="rId2" ref="C3"/>
     <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>